--- a/Rozliczenie_oboz_ZHR/rozliczenie_excel.xlsx
+++ b/Rozliczenie_oboz_ZHR/rozliczenie_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Users\hp\Downloads\ZHR\Rozliczenie_oboz_ZHR\ZHR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Users\hp\Downloads\ZHR\Rozliczenie_oboz_ZHR_github\ZHR\Rozliczenie_oboz_ZHR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C293EC1-FB8E-46F0-9FF3-F845A9438A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712A9EB2-2F1E-4395-9B0C-8684C707A471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>Data</t>
   </si>
@@ -811,7 +811,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,54 +859,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>45838</v>
-      </c>
-      <c r="C2" s="3">
-        <v>21.99</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>45839</v>
-      </c>
       <c r="B3"/>
-      <c r="C3" s="3">
-        <v>-300</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
+      <c r="D3"/>
+      <c r="F3"/>
+      <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="J3"/>
     </row>
   </sheetData>
